--- a/Mifos Automation Excels/Client/4062-CREATECLIENT-DISBURSELOAN-CLOSECLIENT.xlsx
+++ b/Mifos Automation Excels/Client/4062-CREATECLIENT-DISBURSELOAN-CLOSECLIENT.xlsx
@@ -135,9 +135,6 @@
     <t>principal</t>
   </si>
   <si>
-    <t>389-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-B-EarlyRePayment</t>
-  </si>
-  <si>
     <t>verify1</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>disburseloan</t>
+  </si>
+  <si>
+    <t>3500-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Reg-PERIODIC</t>
   </si>
 </sst>
 </file>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -246,7 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,7 +638,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -660,8 +659,8 @@
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>39</v>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -746,15 +745,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="6">
         <v>42005</v>
@@ -762,10 +761,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +828,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
